--- a/biology/Médecine/Graphique_en_forêt/Graphique_en_forêt.xlsx
+++ b/biology/Médecine/Graphique_en_forêt/Graphique_en_forêt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Graphique_en_for%C3%AAt</t>
+          <t>Graphique_en_forêt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un graphique en forêt[1], en anglais a forest plot, est une représentation graphique utilisée dans les revues systématiques ou méta-analyses en médecine. Il permet de comparer les résultats issus de différentes études qui abordent la même question. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un graphique en forêt, en anglais a forest plot, est une représentation graphique utilisée dans les revues systématiques ou méta-analyses en médecine. Il permet de comparer les résultats issus de différentes études qui abordent la même question. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Graphique_en_for%C3%AAt</t>
+          <t>Graphique_en_forêt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été développé dans la recherche médicale comme moyen graphique de représentation d'une méta-analyse de résultats d'essais randomisés contrôlés. Dans les 20 dernières années, des techniques de méta-analyse similaires ont été utilisées dans les études observationnelles (par exemple épidémiologie environnementale) et les forest plots ont aussi été utilisés dans ce type d'étude.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Graphique_en_for%C3%AAt</t>
+          <t>Graphique_en_forêt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Représentation graphique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bien que les forest plots puissent prendre différentes formes, ils sont souvent présentés en 2 colonnes. 
 La colonne de gauche liste le nom des études par habitude dans l'ordre chronologique du haut vers le bas.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Graphique_en_for%C3%AAt</t>
+          <t>Graphique_en_forêt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,11 +591,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forest plots datent au moins des années 1970. Un graphique est retrouvé dans un livre de 1985 sur les méta-analyses. La première utilisation écrite de forest plot aurait été faite dans un résumé d'un poster à Pittsburgh à la réunion de la société des essais cliniques en 1996. Une recherche sur l'origine de la notion de forest plot a été publiée en 2001. Le nom provient du fait que le diagramme crée une forêt de lignes.
 On retrouve parfois l'orthographe « forrest plot », il s'agit d'une blague de Richard Peto qui affirmait que ce nom avait été donné en hommage à Pat Forrest, un chercheur sur le cancer du sein.
-La collaboration Cochrane utilise un forest plot comme logo[2].
+La collaboration Cochrane utilise un forest plot comme logo.
 </t>
         </is>
       </c>
